--- a/GATEWAY/A1#111#DBMEDICAX1/DBMSOFTWARE_SRLS/DBMEDICA/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#DBMEDICAX1/DBMSOFTWARE_SRLS/DBMEDICA/1.0/report-checklist.xlsx
@@ -1214,13 +1214,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-02T16:46:08Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a739b4afbaba3cb3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90.4.4.29193d273b85608d8f4a08942875fd7b9c1fd3302685363c7bb3f37d544fbf40.6fbb9475e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-04T19:59:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">534edd4fa8069bb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90.4.4.2300d09faf6e92103b859d89fb93849c0b3672c30b9cf0d9eca095839799f6a7.ae11ea6c5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1277,7 +1277,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1347,6 +1347,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1481,7 +1487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1618,6 +1624,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1733,7 +1743,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2808,7 +2818,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3915,14 +3925,14 @@
   <dimension ref="A1:T675"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G58" activeCellId="0" sqref="G58"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.86"/>
@@ -4495,7 +4505,7 @@
       <c r="D17" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="27" t="n">
@@ -6363,7 +6373,7 @@
         <v>262</v>
       </c>
       <c r="F58" s="27" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>263</v>
@@ -11063,7 +11073,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId2" display="Viene richiamato il servizio di validazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation&quot; al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10; &#10;I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione &quot;CASO DI TEST 5&quot; riportata nei documenti &quot;casi di test RSA&quot; e &quot;CDA2_Referto_Specialistica_Ambulatoriale_KO&quot; presenti al path https://github.com/ministero-salute/it-fse-accreditamento."/>
+    <hyperlink ref="E17" r:id="rId2" display="https://github.com/ministero-salute/it-fse-accreditamento"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11090,7 +11100,7 @@
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -11121,10 +11131,10 @@
       <c r="B2" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>270</v>
       </c>
     </row>
@@ -11135,10 +11145,10 @@
       <c r="B3" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="35" t="n">
         <v>288</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>272</v>
       </c>
     </row>
@@ -11149,10 +11159,10 @@
       <c r="B4" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="34" t="n">
+      <c r="C4" s="35" t="n">
         <v>289</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>274</v>
       </c>
     </row>
@@ -11163,10 +11173,10 @@
       <c r="B5" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="34" t="n">
+      <c r="C5" s="35" t="n">
         <v>290</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>276</v>
       </c>
     </row>
@@ -11177,10 +11187,10 @@
       <c r="B6" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="34" t="n">
+      <c r="C6" s="35" t="n">
         <v>291</v>
       </c>
-      <c r="D6" s="35" t="n">
+      <c r="D6" s="36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -11191,10 +11201,10 @@
       <c r="B7" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="34" t="n">
+      <c r="C7" s="35" t="n">
         <v>292</v>
       </c>
-      <c r="D7" s="35" t="n">
+      <c r="D7" s="36" t="n">
         <v>303</v>
       </c>
     </row>
@@ -12170,7 +12180,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -12179,32 +12189,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
